--- a/Team-Data/2008-09/11-13-2008-09.xlsx
+++ b/Team-Data/2008-09/11-13-2008-09.xlsx
@@ -811,10 +811,10 @@
         <v>7.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF2" t="n">
         <v>2</v>
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="AI2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK2" t="n">
         <v>12</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>2</v>
@@ -847,7 +847,7 @@
         <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>27</v>
@@ -856,10 +856,10 @@
         <v>13</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
@@ -868,10 +868,10 @@
         <v>7</v>
       </c>
       <c r="AW2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX2" t="n">
         <v>9</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>8</v>
       </c>
       <c r="AY2" t="n">
         <v>20</v>
@@ -883,10 +883,10 @@
         <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
         <v>8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.875</v>
+        <v>0.889</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="J3" t="n">
-        <v>76.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L3" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="M3" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.278</v>
+        <v>0.271</v>
       </c>
       <c r="O3" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="P3" t="n">
-        <v>30.4</v>
+        <v>30.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.761</v>
+        <v>0.744</v>
       </c>
       <c r="R3" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="S3" t="n">
-        <v>34.3</v>
+        <v>33.3</v>
       </c>
       <c r="T3" t="n">
-        <v>45.8</v>
+        <v>44.7</v>
       </c>
       <c r="U3" t="n">
-        <v>20.1</v>
+        <v>19.7</v>
       </c>
       <c r="V3" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="AA3" t="n">
         <v>26.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1017,49 +1017,49 @@
         <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
       </c>
       <c r="AP3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
         <v>15</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV3" t="n">
         <v>29</v>
       </c>
       <c r="AW3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY3" t="n">
         <v>8</v>
       </c>
-      <c r="AX3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>10</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
         <v>2</v>
@@ -1175,16 +1175,16 @@
         <v>-5.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>11</v>
@@ -1202,19 +1202,19 @@
         <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN4" t="n">
         <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
         <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR4" t="n">
         <v>16</v>
@@ -1226,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
         <v>20</v>
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.286</v>
+        <v>0.375</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
@@ -1297,76 +1297,76 @@
         <v>34.9</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.414</v>
+        <v>0.424</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
+        <v>15</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="O5" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="R5" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="S5" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="V5" t="n">
         <v>15.4</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O5" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="P5" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="R5" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="S5" t="n">
-        <v>31</v>
-      </c>
-      <c r="T5" t="n">
-        <v>44.7</v>
-      </c>
-      <c r="U5" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="V5" t="n">
-        <v>14.9</v>
-      </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X5" t="n">
         <v>6.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.1</v>
+        <v>22.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.9</v>
+        <v>-0.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>11</v>
@@ -1375,43 +1375,43 @@
         <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AQ5" t="n">
         <v>10</v>
       </c>
       <c r="AR5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS5" t="n">
         <v>15</v>
       </c>
       <c r="AT5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AV5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
@@ -1420,19 +1420,19 @@
         <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB5" t="n">
         <v>16</v>
       </c>
-      <c r="BB5" t="n">
-        <v>20</v>
-      </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,160 +1461,160 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.857</v>
+        <v>0.75</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>36.6</v>
+        <v>35.6</v>
       </c>
       <c r="J6" t="n">
-        <v>77</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.475</v>
+        <v>0.47</v>
       </c>
       <c r="L6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>18</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="O6" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="R6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6</v>
       </c>
-      <c r="M6" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.326</v>
-      </c>
-      <c r="O6" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.781</v>
-      </c>
-      <c r="R6" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="S6" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>20</v>
-      </c>
-      <c r="V6" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="AE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="n">
         <v>4</v>
       </c>
-      <c r="Z6" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>2</v>
-      </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM6" t="n">
         <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP6" t="n">
         <v>7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT6" t="n">
         <v>20</v>
       </c>
       <c r="AU6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
         <v>13</v>
       </c>
       <c r="AX6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BB6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC6" t="n">
         <v>4</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>2</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1721,31 +1721,31 @@
         <v>-3.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM7" t="n">
         <v>7</v>
@@ -1769,7 +1769,7 @@
         <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU7" t="n">
         <v>10</v>
@@ -1793,7 +1793,7 @@
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC7" t="n">
         <v>21</v>
@@ -1903,13 +1903,13 @@
         <v>1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
@@ -1918,19 +1918,19 @@
         <v>5</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="n">
         <v>14</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
         <v>28</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN8" t="n">
         <v>30</v>
@@ -1951,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
@@ -1969,13 +1969,13 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
         <v>13</v>
@@ -2085,13 +2085,13 @@
         <v>4</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>7</v>
       </c>
       <c r="AF9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG9" t="n">
         <v>6</v>
@@ -2100,10 +2100,10 @@
         <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>18</v>
@@ -2118,10 +2118,10 @@
         <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ9" t="n">
         <v>4</v>
@@ -2145,19 +2145,19 @@
         <v>21</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC9" t="n">
         <v>9</v>
@@ -2267,13 +2267,13 @@
         <v>-2.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
         <v>19</v>
@@ -2291,37 +2291,37 @@
         <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN10" t="n">
         <v>25</v>
       </c>
       <c r="AO10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV10" t="n">
         <v>17</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>18</v>
       </c>
       <c r="AW10" t="n">
         <v>12</v>
@@ -2333,7 +2333,7 @@
         <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2342,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2449,19 +2449,19 @@
         <v>2.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG11" t="n">
         <v>8</v>
       </c>
-      <c r="AG11" t="n">
-        <v>9</v>
-      </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI11" t="n">
         <v>27</v>
@@ -2470,7 +2470,7 @@
         <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>14</v>
@@ -2482,10 +2482,10 @@
         <v>15</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>9</v>
       </c>
       <c r="AT11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU11" t="n">
         <v>28</v>
@@ -2631,13 +2631,13 @@
         <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG12" t="n">
         <v>12</v>
@@ -2664,10 +2664,10 @@
         <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
@@ -2691,19 +2691,19 @@
         <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
         <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
         <v>7</v>
@@ -2813,7 +2813,7 @@
         <v>-13.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2825,7 +2825,7 @@
         <v>29</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
         <v>28</v>
@@ -2837,7 +2837,7 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM13" t="n">
         <v>13</v>
@@ -2873,7 +2873,7 @@
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
         <v>16</v>
@@ -2917,10 +2917,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2932,70 +2932,70 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J14" t="n">
-        <v>84</v>
+        <v>83.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.442</v>
+        <v>0.446</v>
       </c>
       <c r="L14" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>17.3</v>
+        <v>16.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.394</v>
+        <v>0.421</v>
       </c>
       <c r="O14" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="P14" t="n">
-        <v>33</v>
+        <v>30.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.758</v>
+        <v>0.764</v>
       </c>
       <c r="R14" t="n">
-        <v>14.5</v>
+        <v>13.7</v>
       </c>
       <c r="S14" t="n">
-        <v>34.8</v>
+        <v>35.6</v>
       </c>
       <c r="T14" t="n">
         <v>49.3</v>
       </c>
       <c r="U14" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="V14" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W14" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="X14" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>24.3</v>
+        <v>23.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.2</v>
+        <v>104.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -3016,28 +3016,28 @@
         <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL14" t="n">
         <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -3046,25 +3046,25 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3186,7 +3186,7 @@
         <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH15" t="n">
         <v>11</v>
@@ -3201,7 +3201,7 @@
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
         <v>26</v>
@@ -3210,13 +3210,13 @@
         <v>23</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>17</v>
@@ -3225,7 +3225,7 @@
         <v>7</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3237,16 +3237,16 @@
         <v>11</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB15" t="n">
         <v>26</v>
@@ -3359,7 +3359,7 @@
         <v>4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
@@ -3374,7 +3374,7 @@
         <v>11</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
         <v>24</v>
@@ -3389,16 +3389,16 @@
         <v>6</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
         <v>9</v>
       </c>
       <c r="AQ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>25</v>
@@ -3410,7 +3410,7 @@
         <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV16" t="n">
         <v>5</v>
@@ -3419,19 +3419,19 @@
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
         <v>8</v>
       </c>
       <c r="BA16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC16" t="n">
         <v>8</v>
@@ -3463,133 +3463,133 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="J17" t="n">
-        <v>80.90000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.434</v>
+        <v>0.439</v>
       </c>
       <c r="L17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.358</v>
+        <v>0.366</v>
       </c>
       <c r="O17" t="n">
-        <v>18.8</v>
+        <v>18.3</v>
       </c>
       <c r="P17" t="n">
-        <v>25.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.725</v>
+        <v>0.727</v>
       </c>
       <c r="R17" t="n">
         <v>12.4</v>
       </c>
       <c r="S17" t="n">
-        <v>31.4</v>
+        <v>30</v>
       </c>
       <c r="T17" t="n">
-        <v>43.8</v>
+        <v>42.4</v>
       </c>
       <c r="U17" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V17" t="n">
-        <v>15.9</v>
+        <v>16.2</v>
       </c>
       <c r="W17" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X17" t="n">
         <v>3</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1</v>
+        <v>-1.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM17" t="n">
         <v>27</v>
       </c>
       <c r="AN17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP17" t="n">
         <v>14</v>
       </c>
-      <c r="AO17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR17" t="n">
         <v>8</v>
       </c>
       <c r="AS17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AT17" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AU17" t="n">
         <v>7</v>
@@ -3598,19 +3598,19 @@
         <v>23</v>
       </c>
       <c r="AW17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>29</v>
       </c>
       <c r="BA17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB17" t="n">
         <v>24</v>
@@ -3723,7 +3723,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
@@ -3750,13 +3750,13 @@
         <v>24</v>
       </c>
       <c r="AM18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN18" t="n">
         <v>27</v>
       </c>
       <c r="AO18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3783,19 +3783,19 @@
         <v>24</v>
       </c>
       <c r="AX18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
         <v>24</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC18" t="n">
         <v>23</v>
@@ -3905,16 +3905,16 @@
         <v>-7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>11</v>
@@ -3926,7 +3926,7 @@
         <v>22</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>9</v>
@@ -3938,13 +3938,13 @@
         <v>16</v>
       </c>
       <c r="AO19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP19" t="n">
         <v>19</v>
       </c>
-      <c r="AP19" t="n">
-        <v>20</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR19" t="n">
         <v>14</v>
@@ -3956,7 +3956,7 @@
         <v>18</v>
       </c>
       <c r="AU19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV19" t="n">
         <v>16</v>
@@ -3965,7 +3965,7 @@
         <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY19" t="n">
         <v>18</v>
@@ -3974,7 +3974,7 @@
         <v>30</v>
       </c>
       <c r="BA19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB19" t="n">
         <v>27</v>
@@ -4087,13 +4087,13 @@
         <v>3.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
         <v>12</v>
@@ -4102,13 +4102,13 @@
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>3</v>
@@ -4117,16 +4117,16 @@
         <v>4</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
         <v>22</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR20" t="n">
         <v>27</v>
@@ -4135,31 +4135,31 @@
         <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU20" t="n">
         <v>8</v>
       </c>
       <c r="AV20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX20" t="n">
         <v>25</v>
       </c>
       <c r="AY20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ20" t="n">
         <v>13</v>
       </c>
       <c r="BA20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC20" t="n">
         <v>10</v>
@@ -4269,16 +4269,16 @@
         <v>0.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>7</v>
       </c>
       <c r="AF21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG21" t="n">
         <v>8</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>9</v>
       </c>
       <c r="AH21" t="n">
         <v>11</v>
@@ -4290,7 +4290,7 @@
         <v>3</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4308,13 +4308,13 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR21" t="n">
         <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT21" t="n">
         <v>21</v>
@@ -4323,7 +4323,7 @@
         <v>4</v>
       </c>
       <c r="AV21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW21" t="n">
         <v>4</v>
@@ -4332,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ21" t="n">
         <v>7</v>
@@ -4344,7 +4344,7 @@
         <v>2</v>
       </c>
       <c r="BC21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4451,7 +4451,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4481,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>25</v>
@@ -4490,7 +4490,7 @@
         <v>22</v>
       </c>
       <c r="AQ22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR22" t="n">
         <v>6</v>
@@ -4499,7 +4499,7 @@
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>29</v>
@@ -4511,13 +4511,13 @@
         <v>20</v>
       </c>
       <c r="AX22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY22" t="n">
         <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
         <v>27</v>
@@ -4633,40 +4633,40 @@
         <v>6.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>7</v>
       </c>
       <c r="AF23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG23" t="n">
         <v>8</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>9</v>
       </c>
       <c r="AH23" t="n">
         <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>6</v>
@@ -4681,13 +4681,13 @@
         <v>5</v>
       </c>
       <c r="AT23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4696,16 +4696,16 @@
         <v>1</v>
       </c>
       <c r="AY23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ23" t="n">
         <v>11</v>
       </c>
       <c r="BA23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC23" t="n">
         <v>5</v>
@@ -4815,13 +4815,13 @@
         <v>1.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
         <v>19</v>
@@ -4836,7 +4836,7 @@
         <v>8</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="n">
         <v>20</v>
@@ -4854,19 +4854,19 @@
         <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AR24" t="n">
         <v>4</v>
       </c>
       <c r="AS24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT24" t="n">
         <v>2</v>
       </c>
       <c r="AU24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4887,7 +4887,7 @@
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC24" t="n">
         <v>14</v>
@@ -5000,19 +5000,19 @@
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH25" t="n">
         <v>11</v>
       </c>
       <c r="AI25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>30</v>
@@ -5024,19 +5024,19 @@
         <v>12</v>
       </c>
       <c r="AM25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN25" t="n">
         <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP25" t="n">
         <v>8</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR25" t="n">
         <v>30</v>
@@ -5057,19 +5057,19 @@
         <v>24</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB25" t="n">
         <v>4</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>5</v>
       </c>
       <c r="BC25" t="n">
         <v>11</v>
@@ -5101,109 +5101,109 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0.714</v>
+        <v>0.625</v>
       </c>
       <c r="H26" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>35.4</v>
       </c>
       <c r="J26" t="n">
-        <v>79.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>0.457</v>
+        <v>0.442</v>
       </c>
       <c r="L26" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>19.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.406</v>
+        <v>0.408</v>
       </c>
       <c r="O26" t="n">
-        <v>19.7</v>
+        <v>18.3</v>
       </c>
       <c r="P26" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.789</v>
+        <v>0.772</v>
       </c>
       <c r="R26" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S26" t="n">
-        <v>25.9</v>
+        <v>26.5</v>
       </c>
       <c r="T26" t="n">
-        <v>38.1</v>
+        <v>38.9</v>
       </c>
       <c r="U26" t="n">
         <v>19.4</v>
       </c>
       <c r="V26" t="n">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="W26" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.3</v>
+        <v>21.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.6</v>
+        <v>-2</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH26" t="n">
         <v>6</v>
       </c>
-      <c r="AH26" t="n">
-        <v>5</v>
-      </c>
       <c r="AI26" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
         <v>10</v>
@@ -5212,13 +5212,13 @@
         <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AR26" t="n">
         <v>9</v>
@@ -5227,7 +5227,7 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU26" t="n">
         <v>20</v>
@@ -5236,25 +5236,25 @@
         <v>1</v>
       </c>
       <c r="AW26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC26" t="n">
         <v>19</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>21</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>15</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5367,10 +5367,10 @@
         <v>12</v>
       </c>
       <c r="AF27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH27" t="n">
         <v>11</v>
@@ -5388,10 +5388,10 @@
         <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>23</v>
@@ -5406,7 +5406,7 @@
         <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT27" t="n">
         <v>25</v>
@@ -5415,7 +5415,7 @@
         <v>9</v>
       </c>
       <c r="AV27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW27" t="n">
         <v>28</v>
@@ -5427,13 +5427,13 @@
         <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
         <v>18</v>
       </c>
       <c r="BB27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC27" t="n">
         <v>24</v>
@@ -5543,16 +5543,16 @@
         <v>-3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH28" t="n">
         <v>2</v>
@@ -5561,7 +5561,7 @@
         <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
@@ -5606,7 +5606,7 @@
         <v>29</v>
       </c>
       <c r="AY28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ28" t="n">
         <v>6</v>
@@ -5725,7 +5725,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5737,7 +5737,7 @@
         <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI29" t="n">
         <v>23</v>
@@ -5752,13 +5752,13 @@
         <v>11</v>
       </c>
       <c r="AM29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
         <v>24</v>
@@ -5788,7 +5788,7 @@
         <v>12</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>2</v>
@@ -5907,16 +5907,16 @@
         <v>6.6</v>
       </c>
       <c r="AD30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF30" t="n">
         <v>4</v>
       </c>
-      <c r="AE30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>5</v>
-      </c>
       <c r="AG30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH30" t="n">
         <v>11</v>
@@ -5928,7 +5928,7 @@
         <v>21</v>
       </c>
       <c r="AK30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL30" t="n">
         <v>29</v>
@@ -5940,28 +5940,28 @@
         <v>24</v>
       </c>
       <c r="AO30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>18</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>6</v>
@@ -5976,13 +5976,13 @@
         <v>17</v>
       </c>
       <c r="BA30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -6089,13 +6089,13 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
         <v>27</v>
@@ -6104,34 +6104,34 @@
         <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
       </c>
       <c r="AM31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO31" t="n">
         <v>7</v>
       </c>
       <c r="AP31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
         <v>26</v>
@@ -6140,7 +6140,7 @@
         <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV31" t="n">
         <v>15</v>
@@ -6149,7 +6149,7 @@
         <v>16</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
         <v>19</v>
@@ -6161,7 +6161,7 @@
         <v>4</v>
       </c>
       <c r="BB31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC31" t="n">
         <v>28</v>

--- a/Team-Data/2008-09/11-13-2008-09.xlsx
+++ b/Team-Data/2008-09/11-13-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>7.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>3</v>
@@ -753,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
@@ -762,10 +829,10 @@
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK2" t="n">
         <v>12</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>2</v>
@@ -777,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>27</v>
@@ -789,37 +856,37 @@
         <v>13</v>
       </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX2" t="n">
         <v>9</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>7</v>
       </c>
       <c r="AY2" t="n">
         <v>20</v>
       </c>
       <c r="AZ2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA2" t="n">
         <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
         <v>8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.875</v>
+        <v>0.889</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="J3" t="n">
-        <v>76.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L3" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="M3" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.278</v>
+        <v>0.271</v>
       </c>
       <c r="O3" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="P3" t="n">
-        <v>30.4</v>
+        <v>30.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.761</v>
+        <v>0.744</v>
       </c>
       <c r="R3" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="S3" t="n">
-        <v>34.3</v>
+        <v>33.3</v>
       </c>
       <c r="T3" t="n">
-        <v>45.8</v>
+        <v>44.7</v>
       </c>
       <c r="U3" t="n">
-        <v>20.1</v>
+        <v>19.7</v>
       </c>
       <c r="V3" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="AA3" t="n">
         <v>26.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>95</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -947,13 +1014,13 @@
         <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
         <v>27</v>
       </c>
       <c r="AM3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
         <v>29</v>
@@ -962,37 +1029,37 @@
         <v>3</v>
       </c>
       <c r="AP3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
         <v>15</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV3" t="n">
         <v>29</v>
       </c>
       <c r="AW3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY3" t="n">
         <v>8</v>
       </c>
-      <c r="AX3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>10</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-5.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
@@ -1129,25 +1196,25 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>14</v>
       </c>
       <c r="AP4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR4" t="n">
         <v>16</v>
@@ -1159,19 +1226,19 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
         <v>20</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX4" t="n">
         <v>24</v>
       </c>
       <c r="AY4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ4" t="n">
         <v>9</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -1230,73 +1297,73 @@
         <v>34.9</v>
       </c>
       <c r="J5" t="n">
-        <v>84.3</v>
+        <v>82.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.414</v>
+        <v>0.424</v>
       </c>
       <c r="L5" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>0.368</v>
+        <v>0.375</v>
       </c>
       <c r="O5" t="n">
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="P5" t="n">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="R5" t="n">
-        <v>13.3</v>
+        <v>13.8</v>
       </c>
       <c r="S5" t="n">
-        <v>31.6</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>44.9</v>
+        <v>44.1</v>
       </c>
       <c r="U5" t="n">
-        <v>17</v>
+        <v>18.8</v>
       </c>
       <c r="V5" t="n">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="W5" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="X5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1308,64 +1375,64 @@
         <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>11</v>
       </c>
       <c r="AO5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP5" t="n">
         <v>10</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AQ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA5" t="n">
         <v>12</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>15</v>
-      </c>
       <c r="BB5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -1397,58 +1464,58 @@
         <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.9</v>
+        <v>35.6</v>
       </c>
       <c r="J6" t="n">
-        <v>77.59999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.488</v>
+        <v>0.47</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="M6" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="N6" t="n">
-        <v>0.331</v>
+        <v>0.313</v>
       </c>
       <c r="O6" t="n">
-        <v>20.9</v>
+        <v>22.6</v>
       </c>
       <c r="P6" t="n">
-        <v>26.6</v>
+        <v>29.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.784</v>
+        <v>0.774</v>
       </c>
       <c r="R6" t="n">
         <v>10.5</v>
       </c>
       <c r="S6" t="n">
-        <v>29</v>
+        <v>29.9</v>
       </c>
       <c r="T6" t="n">
-        <v>39.5</v>
+        <v>40.4</v>
       </c>
       <c r="U6" t="n">
-        <v>21.3</v>
+        <v>19.5</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>14.6</v>
       </c>
       <c r="W6" t="n">
         <v>7.8</v>
@@ -1457,97 +1524,97 @@
         <v>6.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.6</v>
+        <v>99.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
       </c>
       <c r="AI6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK6" t="n">
         <v>4</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>3</v>
-      </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AP6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AR6" t="n">
         <v>22</v>
       </c>
       <c r="AS6" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AT6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC6" t="n">
         <v>4</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>2</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -1576,151 +1643,151 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.25</v>
+        <v>0.286</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>35.9</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>84.40000000000001</v>
+        <v>84</v>
       </c>
       <c r="K7" t="n">
-        <v>0.425</v>
+        <v>0.434</v>
       </c>
       <c r="L7" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="M7" t="n">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.292</v>
+        <v>0.295</v>
       </c>
       <c r="O7" t="n">
-        <v>18</v>
+        <v>17.3</v>
       </c>
       <c r="P7" t="n">
-        <v>22.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.791</v>
+        <v>0.796</v>
       </c>
       <c r="R7" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="S7" t="n">
-        <v>32.6</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>45</v>
+        <v>43.7</v>
       </c>
       <c r="U7" t="n">
-        <v>19.9</v>
+        <v>20.6</v>
       </c>
       <c r="V7" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="X7" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="Y7" t="n">
         <v>4.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC7" t="n">
-        <v>-3.8</v>
+        <v>-3.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
         <v>5</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT7" t="n">
         <v>9</v>
       </c>
-      <c r="AN7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX7" t="n">
         <v>22</v>
       </c>
-      <c r="AP7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AV7" t="n">
+      <c r="AY7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>9</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>10</v>
       </c>
       <c r="BA7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -1758,160 +1825,160 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="H8" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I8" t="n">
         <v>35.1</v>
       </c>
       <c r="J8" t="n">
-        <v>79.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.442</v>
+        <v>0.437</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.288</v>
+        <v>0.264</v>
       </c>
       <c r="O8" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="P8" t="n">
-        <v>32.5</v>
+        <v>33.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.777</v>
+        <v>0.767</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="S8" t="n">
-        <v>33.1</v>
+        <v>34.3</v>
       </c>
       <c r="T8" t="n">
-        <v>43.1</v>
+        <v>44.6</v>
       </c>
       <c r="U8" t="n">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="V8" t="n">
-        <v>16.6</v>
+        <v>17</v>
       </c>
       <c r="W8" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="X8" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>25.1</v>
+        <v>25.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.1</v>
+        <v>1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
       </c>
       <c r="AF8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>14</v>
       </c>
-      <c r="AG8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>17</v>
-      </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AM8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN8" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
       </c>
       <c r="AP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW8" t="n">
         <v>3</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4</v>
-      </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -1940,103 +2007,103 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.75</v>
+        <v>0.714</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>36</v>
+        <v>35.6</v>
       </c>
       <c r="J9" t="n">
-        <v>81.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L9" t="n">
         <v>6.3</v>
       </c>
       <c r="M9" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.397</v>
+        <v>0.389</v>
       </c>
       <c r="O9" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="P9" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.795</v>
+        <v>0.804</v>
       </c>
       <c r="R9" t="n">
         <v>13</v>
       </c>
       <c r="S9" t="n">
-        <v>30.1</v>
+        <v>29.3</v>
       </c>
       <c r="T9" t="n">
-        <v>43.1</v>
+        <v>42.3</v>
       </c>
       <c r="U9" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="V9" t="n">
-        <v>12.5</v>
+        <v>11.7</v>
       </c>
       <c r="W9" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="X9" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Y9" t="n">
         <v>3.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.3</v>
+        <v>21.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.59999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AF9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH9" t="n">
         <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>18</v>
@@ -2048,52 +2115,52 @@
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AQ9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AT9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX9" t="n">
         <v>4</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA9" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC9" t="n">
         <v>9</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>8</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -2122,70 +2189,70 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.333</v>
+        <v>0.375</v>
       </c>
       <c r="H10" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I10" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J10" t="n">
-        <v>87.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
       <c r="L10" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="M10" t="n">
-        <v>17.9</v>
+        <v>19</v>
       </c>
       <c r="N10" t="n">
-        <v>0.286</v>
+        <v>0.296</v>
       </c>
       <c r="O10" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="P10" t="n">
-        <v>32.9</v>
+        <v>32.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.699</v>
+        <v>0.695</v>
       </c>
       <c r="R10" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="S10" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="T10" t="n">
-        <v>45.1</v>
+        <v>44.4</v>
       </c>
       <c r="U10" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="V10" t="n">
         <v>15.1</v>
       </c>
       <c r="W10" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="X10" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Z10" t="n">
         <v>23</v>
@@ -2197,25 +2264,25 @@
         <v>102.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.9</v>
+        <v>-2.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
         <v>3</v>
       </c>
       <c r="AI10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ10" t="n">
         <v>2</v>
@@ -2224,55 +2291,55 @@
         <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AM10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP10" t="n">
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>1</v>
       </c>
       <c r="AS10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV10" t="n">
         <v>17</v>
       </c>
-      <c r="AT10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>18</v>
-      </c>
       <c r="AW10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX10" t="n">
         <v>2</v>
       </c>
       <c r="AY10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
       </c>
       <c r="BB10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>2.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG11" t="n">
         <v>8</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>6</v>
@@ -2403,10 +2470,10 @@
         <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM11" t="n">
         <v>13</v>
@@ -2418,7 +2485,7 @@
         <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -2430,22 +2497,22 @@
         <v>9</v>
       </c>
       <c r="AT11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV11" t="n">
         <v>5</v>
       </c>
       <c r="AW11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX11" t="n">
         <v>27</v>
       </c>
       <c r="AY11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG12" t="n">
         <v>12</v>
@@ -2579,10 +2646,10 @@
         <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
         <v>6</v>
@@ -2597,25 +2664,25 @@
         <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
         <v>20</v>
       </c>
       <c r="AS12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
         <v>22</v>
@@ -2624,19 +2691,19 @@
         <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-13.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2764,13 +2831,13 @@
         <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM13" t="n">
         <v>13</v>
@@ -2782,10 +2849,10 @@
         <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR13" t="n">
         <v>17</v>
@@ -2794,7 +2861,7 @@
         <v>25</v>
       </c>
       <c r="AT13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -2850,10 +2917,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2865,73 +2932,73 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J14" t="n">
-        <v>84</v>
+        <v>83.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.442</v>
+        <v>0.446</v>
       </c>
       <c r="L14" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>17.3</v>
+        <v>16.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.394</v>
+        <v>0.421</v>
       </c>
       <c r="O14" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="P14" t="n">
-        <v>33</v>
+        <v>30.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.758</v>
+        <v>0.764</v>
       </c>
       <c r="R14" t="n">
-        <v>14.5</v>
+        <v>13.7</v>
       </c>
       <c r="S14" t="n">
-        <v>34.8</v>
+        <v>35.6</v>
       </c>
       <c r="T14" t="n">
         <v>49.3</v>
       </c>
       <c r="U14" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="V14" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W14" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="X14" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>24.3</v>
+        <v>23.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.2</v>
+        <v>104.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -2943,34 +3010,34 @@
         <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL14" t="n">
         <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2979,25 +3046,25 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -3116,10 +3183,10 @@
         <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH15" t="n">
         <v>11</v>
@@ -3131,10 +3198,10 @@
         <v>23</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
         <v>26</v>
@@ -3149,16 +3216,16 @@
         <v>11</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>17</v>
       </c>
       <c r="AS15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3167,16 +3234,16 @@
         <v>26</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>18</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>17</v>
       </c>
       <c r="BA15" t="n">
         <v>16</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -3292,25 +3359,25 @@
         <v>4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
         <v>11</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3322,19 +3389,19 @@
         <v>6</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS16" t="n">
         <v>28</v>
@@ -3343,7 +3410,7 @@
         <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV16" t="n">
         <v>5</v>
@@ -3352,19 +3419,19 @@
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
         <v>8</v>
       </c>
       <c r="BA16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -3396,160 +3463,160 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="J17" t="n">
-        <v>80.90000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.434</v>
+        <v>0.439</v>
       </c>
       <c r="L17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.358</v>
+        <v>0.366</v>
       </c>
       <c r="O17" t="n">
-        <v>18.8</v>
+        <v>18.3</v>
       </c>
       <c r="P17" t="n">
-        <v>25.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.725</v>
+        <v>0.727</v>
       </c>
       <c r="R17" t="n">
         <v>12.4</v>
       </c>
       <c r="S17" t="n">
-        <v>31.4</v>
+        <v>30</v>
       </c>
       <c r="T17" t="n">
-        <v>43.8</v>
+        <v>42.4</v>
       </c>
       <c r="U17" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V17" t="n">
-        <v>15.9</v>
+        <v>16.2</v>
       </c>
       <c r="W17" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X17" t="n">
         <v>3</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1</v>
+        <v>-1.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK17" t="n">
         <v>19</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>20</v>
-      </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM17" t="n">
         <v>27</v>
       </c>
       <c r="AN17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP17" t="n">
         <v>14</v>
       </c>
-      <c r="AO17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>13</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR17" t="n">
         <v>8</v>
       </c>
       <c r="AS17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT17" t="n">
         <v>14</v>
       </c>
-      <c r="AT17" t="n">
-        <v>9</v>
-      </c>
       <c r="AU17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
         <v>23</v>
       </c>
       <c r="AW17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>29</v>
       </c>
       <c r="BA17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB17" t="n">
         <v>24</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-4.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
         <v>28</v>
@@ -3677,19 +3744,19 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
       </c>
       <c r="AM18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO18" t="n">
         <v>18</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>20</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3710,25 +3777,25 @@
         <v>2</v>
       </c>
       <c r="AV18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW18" t="n">
         <v>24</v>
       </c>
       <c r="AX18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA18" t="n">
         <v>22</v>
       </c>
-      <c r="AY18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>23</v>
-      </c>
       <c r="BB18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>23</v>
@@ -3859,7 +3926,7 @@
         <v>22</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>9</v>
@@ -3871,34 +3938,34 @@
         <v>16</v>
       </c>
       <c r="AO19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP19" t="n">
         <v>19</v>
       </c>
-      <c r="AP19" t="n">
-        <v>20</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AR19" t="n">
         <v>14</v>
       </c>
       <c r="AS19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT19" t="n">
         <v>18</v>
       </c>
       <c r="AU19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY19" t="n">
         <v>18</v>
@@ -3907,7 +3974,7 @@
         <v>30</v>
       </c>
       <c r="BA19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB19" t="n">
         <v>27</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>3.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
         <v>12</v>
@@ -4038,10 +4105,10 @@
         <v>22</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>3</v>
@@ -4050,16 +4117,16 @@
         <v>4</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
         <v>22</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR20" t="n">
         <v>27</v>
@@ -4068,31 +4135,31 @@
         <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU20" t="n">
         <v>8</v>
       </c>
       <c r="AV20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX20" t="n">
         <v>25</v>
       </c>
       <c r="AY20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ20" t="n">
         <v>13</v>
       </c>
       <c r="BA20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>0.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG21" t="n">
         <v>8</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>9</v>
       </c>
       <c r="AH21" t="n">
         <v>11</v>
@@ -4223,7 +4290,7 @@
         <v>3</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4241,31 +4308,31 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AT21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU21" t="n">
         <v>4</v>
       </c>
       <c r="AV21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ21" t="n">
         <v>7</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4414,25 +4481,25 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP22" t="n">
         <v>22</v>
       </c>
       <c r="AQ22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR22" t="n">
         <v>6</v>
       </c>
       <c r="AS22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>29</v>
@@ -4444,13 +4511,13 @@
         <v>20</v>
       </c>
       <c r="AX22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -4566,37 +4633,37 @@
         <v>6.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG23" t="n">
         <v>8</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>9</v>
       </c>
       <c r="AH23" t="n">
         <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
         <v>11</v>
@@ -4608,37 +4675,37 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS23" t="n">
         <v>5</v>
       </c>
       <c r="AT23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
         <v>1</v>
       </c>
       <c r="AY23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC23" t="n">
         <v>5</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>1.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
         <v>19</v>
@@ -4763,16 +4830,16 @@
         <v>11</v>
       </c>
       <c r="AI24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ24" t="n">
         <v>8</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="n">
         <v>28</v>
@@ -4784,13 +4851,13 @@
         <v>27</v>
       </c>
       <c r="AP24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AR24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS24" t="n">
         <v>3</v>
@@ -4799,7 +4866,7 @@
         <v>2</v>
       </c>
       <c r="AU24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4820,10 +4887,10 @@
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -4936,16 +5003,16 @@
         <v>3</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH25" t="n">
         <v>11</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>30</v>
@@ -4957,7 +5024,7 @@
         <v>12</v>
       </c>
       <c r="AM25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN25" t="n">
         <v>10</v>
@@ -4966,43 +5033,43 @@
         <v>5</v>
       </c>
       <c r="AP25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR25" t="n">
         <v>30</v>
       </c>
       <c r="AS25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU25" t="n">
         <v>14</v>
       </c>
       <c r="AV25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW25" t="n">
         <v>24</v>
       </c>
       <c r="AX25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA25" t="n">
         <v>10</v>
       </c>
       <c r="BB25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -5034,109 +5101,109 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0.714</v>
+        <v>0.625</v>
       </c>
       <c r="H26" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>35.4</v>
       </c>
       <c r="J26" t="n">
-        <v>79.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>0.457</v>
+        <v>0.442</v>
       </c>
       <c r="L26" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>19.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.406</v>
+        <v>0.408</v>
       </c>
       <c r="O26" t="n">
-        <v>19.7</v>
+        <v>18.3</v>
       </c>
       <c r="P26" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.789</v>
+        <v>0.772</v>
       </c>
       <c r="R26" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S26" t="n">
-        <v>25.9</v>
+        <v>26.5</v>
       </c>
       <c r="T26" t="n">
-        <v>38.1</v>
+        <v>38.9</v>
       </c>
       <c r="U26" t="n">
         <v>19.4</v>
       </c>
       <c r="V26" t="n">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="W26" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.3</v>
+        <v>21.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.6</v>
+        <v>-2</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG26" t="n">
         <v>8</v>
       </c>
-      <c r="AF26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>7</v>
-      </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
         <v>10</v>
@@ -5145,22 +5212,22 @@
         <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AR26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS26" t="n">
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU26" t="n">
         <v>20</v>
@@ -5172,22 +5239,22 @@
         <v>17</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC26" t="n">
         <v>19</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>21</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>14</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -5300,10 +5367,10 @@
         <v>12</v>
       </c>
       <c r="AF27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH27" t="n">
         <v>11</v>
@@ -5324,16 +5391,16 @@
         <v>24</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>26</v>
@@ -5345,10 +5412,10 @@
         <v>25</v>
       </c>
       <c r="AU27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW27" t="n">
         <v>28</v>
@@ -5360,13 +5427,13 @@
         <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
         <v>18</v>
       </c>
       <c r="BB27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -5476,13 +5543,13 @@
         <v>-3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>23</v>
       </c>
       <c r="AF28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG28" t="n">
         <v>23</v>
@@ -5491,10 +5558,10 @@
         <v>2</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
@@ -5503,7 +5570,7 @@
         <v>6</v>
       </c>
       <c r="AM28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN28" t="n">
         <v>9</v>
@@ -5527,7 +5594,7 @@
         <v>19</v>
       </c>
       <c r="AU28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5539,7 +5606,7 @@
         <v>29</v>
       </c>
       <c r="AY28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ28" t="n">
         <v>6</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>-1.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
@@ -5685,13 +5752,13 @@
         <v>11</v>
       </c>
       <c r="AM29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
         <v>24</v>
@@ -5703,7 +5770,7 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT29" t="n">
         <v>30</v>
@@ -5718,10 +5785,10 @@
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>2</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -5840,28 +5907,28 @@
         <v>6.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>3</v>
       </c>
       <c r="AF30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH30" t="n">
         <v>11</v>
       </c>
       <c r="AI30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ30" t="n">
         <v>21</v>
       </c>
       <c r="AK30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL30" t="n">
         <v>29</v>
@@ -5873,28 +5940,28 @@
         <v>24</v>
       </c>
       <c r="AO30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>18</v>
       </c>
-      <c r="AQ30" t="n">
-        <v>17</v>
-      </c>
       <c r="AR30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>6</v>
@@ -5906,16 +5973,16 @@
         <v>28</v>
       </c>
       <c r="AZ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
         <v>27</v>
@@ -6037,31 +6104,31 @@
         <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
       </c>
       <c r="AM31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
         <v>21</v>
@@ -6073,16 +6140,16 @@
         <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW31" t="n">
         <v>16</v>
       </c>
-      <c r="AW31" t="n">
+      <c r="AX31" t="n">
         <v>15</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>17</v>
       </c>
       <c r="AY31" t="n">
         <v>19</v>
@@ -6094,7 +6161,7 @@
         <v>4</v>
       </c>
       <c r="BB31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-13-2008-09</t>
+          <t>2008-11-13</t>
         </is>
       </c>
     </row>
